--- a/data/vgp_database/Clear_Lake_volcanic_field.xlsx
+++ b/data/vgp_database/Clear_Lake_volcanic_field.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yimingzhang/Github/Gallo_etal_2023_APWP_construction/data/vgp_database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC773E57-351D-9345-B7EE-3F19C31C1961}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E54D3F1E-723C-B345-8A56-1F029A9F1514}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2440" yWindow="500" windowWidth="33600" windowHeight="19360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="168">
   <si>
     <t>Name:</t>
   </si>
@@ -539,118 +539,7 @@
     <t>10.3133/pp1141:10.1016/S0016-7037(03)00140-6:10.1016/S0016-7037(03)00126-1</t>
   </si>
   <si>
-    <t>10.3133/pp1141:10.1016/S0016-7037(03)00140-6:10.1016/S0016-7037(03)00126-2</t>
-  </si>
-  <si>
-    <t>10.3133/pp1141:10.1016/S0016-7037(03)00140-6:10.1016/S0016-7037(03)00126-3</t>
-  </si>
-  <si>
-    <t>10.3133/pp1141:10.1016/S0016-7037(03)00140-6:10.1016/S0016-7037(03)00126-4</t>
-  </si>
-  <si>
-    <t>10.3133/pp1141:10.1016/S0016-7037(03)00140-6:10.1016/S0016-7037(03)00126-5</t>
-  </si>
-  <si>
-    <t>10.3133/pp1141:10.1016/S0016-7037(03)00140-6:10.1016/S0016-7037(03)00126-6</t>
-  </si>
-  <si>
-    <t>10.3133/pp1141:10.1016/S0016-7037(03)00140-6:10.1016/S0016-7037(03)00126-7</t>
-  </si>
-  <si>
-    <t>10.3133/pp1141:10.1016/S0016-7037(03)00140-6:10.1016/S0016-7037(03)00126-8</t>
-  </si>
-  <si>
-    <t>10.3133/pp1141:10.1016/S0016-7037(03)00140-6:10.1016/S0016-7037(03)00126-9</t>
-  </si>
-  <si>
-    <t>10.3133/pp1141:10.1016/S0016-7037(03)00140-6:10.1016/S0016-7037(03)00126-10</t>
-  </si>
-  <si>
-    <t>10.3133/pp1141:10.1016/S0016-7037(03)00140-6:10.1016/S0016-7037(03)00126-11</t>
-  </si>
-  <si>
-    <t>10.3133/pp1141:10.1016/S0016-7037(03)00140-6:10.1016/S0016-7037(03)00126-12</t>
-  </si>
-  <si>
-    <t>10.3133/pp1141:10.1016/S0016-7037(03)00140-6:10.1016/S0016-7037(03)00126-13</t>
-  </si>
-  <si>
-    <t>10.3133/pp1141:10.1016/S0016-7037(03)00140-6:10.1016/S0016-7037(03)00126-14</t>
-  </si>
-  <si>
-    <t>10.3133/pp1141:10.1016/S0016-7037(03)00140-6:10.1016/S0016-7037(03)00126-15</t>
-  </si>
-  <si>
-    <t>10.3133/pp1141:10.1016/S0016-7037(03)00140-6:10.1016/S0016-7037(03)00126-16</t>
-  </si>
-  <si>
-    <t>10.3133/pp1141:10.1016/S0016-7037(03)00140-6:10.1016/S0016-7037(03)00126-17</t>
-  </si>
-  <si>
-    <t>10.3133/pp1141:10.1016/S0016-7037(03)00140-6:10.1016/S0016-7037(03)00126-18</t>
-  </si>
-  <si>
-    <t>10.3133/pp1141:10.1016/S0016-7037(03)00140-6:10.1016/S0016-7037(03)00126-19</t>
-  </si>
-  <si>
-    <t>10.3133/pp1141:10.1016/S0016-7037(03)00140-6:10.1016/S0016-7037(03)00126-20</t>
-  </si>
-  <si>
-    <t>10.3133/pp1141:10.1016/S0016-7037(03)00140-6:10.1016/S0016-7037(03)00126-21</t>
-  </si>
-  <si>
-    <t>10.3133/pp1141:10.1016/S0016-7037(03)00140-6:10.1016/S0016-7037(03)00126-22</t>
-  </si>
-  <si>
-    <t>10.3133/pp1141:10.1016/S0016-7037(03)00140-6:10.1016/S0016-7037(03)00126-23</t>
-  </si>
-  <si>
-    <t>10.3133/pp1141:10.1016/S0016-7037(03)00140-6:10.1016/S0016-7037(03)00126-24</t>
-  </si>
-  <si>
-    <t>10.3133/pp1141:10.1016/S0016-7037(03)00140-6:10.1016/S0016-7037(03)00126-25</t>
-  </si>
-  <si>
-    <t>10.3133/pp1141:10.1016/S0016-7037(03)00140-6:10.1016/S0016-7037(03)00126-26</t>
-  </si>
-  <si>
-    <t>10.3133/pp1141:10.1016/S0016-7037(03)00140-6:10.1016/S0016-7037(03)00126-27</t>
-  </si>
-  <si>
-    <t>10.3133/pp1141:10.1016/S0016-7037(03)00140-6:10.1016/S0016-7037(03)00126-28</t>
-  </si>
-  <si>
-    <t>10.3133/pp1141:10.1016/S0016-7037(03)00140-6:10.1016/S0016-7037(03)00126-29</t>
-  </si>
-  <si>
-    <t>10.3133/pp1141:10.1016/S0016-7037(03)00140-6:10.1016/S0016-7037(03)00126-30</t>
-  </si>
-  <si>
-    <t>10.3133/pp1141:10.1016/S0016-7037(03)00140-6:10.1016/S0016-7037(03)00126-31</t>
-  </si>
-  <si>
-    <t>10.3133/pp1141:10.1016/S0016-7037(03)00140-6:10.1016/S0016-7037(03)00126-32</t>
-  </si>
-  <si>
-    <t>10.3133/pp1141:10.1016/S0016-7037(03)00140-6:10.1016/S0016-7037(03)00126-33</t>
-  </si>
-  <si>
-    <t>10.3133/pp1141:10.1016/S0016-7037(03)00140-6:10.1016/S0016-7037(03)00126-34</t>
-  </si>
-  <si>
-    <t>10.3133/pp1141:10.1016/S0016-7037(03)00140-6:10.1016/S0016-7037(03)00126-35</t>
-  </si>
-  <si>
-    <t>10.3133/pp1141:10.1016/S0016-7037(03)00140-6:10.1016/S0016-7037(03)00126-36</t>
-  </si>
-  <si>
-    <t>10.3133/pp1141:10.1016/S0016-7037(03)00140-6:10.1016/S0016-7037(03)00126-37</t>
-  </si>
-  <si>
-    <t>10.3133/pp1141:10.1016/S0016-7037(03)00140-6:10.1016/S0016-7037(03)00126-38</t>
-  </si>
-  <si>
-    <t>10.3133/pp1141:10.1016/S0016-7037(03)00140-6:10.1016/S0016-7037(03)00126-39</t>
+    <t>10.3133/pp1141</t>
   </si>
 </sst>
 </file>
@@ -1101,8 +990,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AQ734"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z4" workbookViewId="0">
-      <selection activeCell="AP23" sqref="AP23"/>
+    <sheetView tabSelected="1" topLeftCell="Z3" workbookViewId="0">
+      <selection activeCell="AP21" sqref="AP21:AP47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1933,8 +1822,9 @@
       <c r="AN10" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="AP10" s="4" t="s">
-        <v>167</v>
+      <c r="AP10" s="4" t="str">
+        <f>AP9</f>
+        <v>10.3133/pp1141:10.1016/S0016-7037(03)00140-6:10.1016/S0016-7037(03)00126-1</v>
       </c>
     </row>
     <row r="11" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2042,8 +1932,9 @@
       <c r="AN11" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="AP11" s="4" t="s">
-        <v>168</v>
+      <c r="AP11" s="4" t="str">
+        <f t="shared" ref="AP11:AP47" si="0">AP10</f>
+        <v>10.3133/pp1141:10.1016/S0016-7037(03)00140-6:10.1016/S0016-7037(03)00126-1</v>
       </c>
     </row>
     <row r="12" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2147,8 +2038,9 @@
         <v>70</v>
       </c>
       <c r="AN12" s="4"/>
-      <c r="AP12" s="4" t="s">
-        <v>169</v>
+      <c r="AP12" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>10.3133/pp1141:10.1016/S0016-7037(03)00140-6:10.1016/S0016-7037(03)00126-1</v>
       </c>
     </row>
     <row r="13" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2252,8 +2144,9 @@
       <c r="AN13" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="AP13" s="4" t="s">
-        <v>170</v>
+      <c r="AP13" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>10.3133/pp1141:10.1016/S0016-7037(03)00140-6:10.1016/S0016-7037(03)00126-1</v>
       </c>
     </row>
     <row r="14" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2361,8 +2254,9 @@
       <c r="AN14" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="AP14" s="4" t="s">
-        <v>171</v>
+      <c r="AP14" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>10.3133/pp1141:10.1016/S0016-7037(03)00140-6:10.1016/S0016-7037(03)00126-1</v>
       </c>
     </row>
     <row r="15" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2466,8 +2360,9 @@
       <c r="AN15" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="AP15" s="4" t="s">
-        <v>172</v>
+      <c r="AP15" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>10.3133/pp1141:10.1016/S0016-7037(03)00140-6:10.1016/S0016-7037(03)00126-1</v>
       </c>
     </row>
     <row r="16" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2571,8 +2466,9 @@
       <c r="AN16" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="AP16" s="4" t="s">
-        <v>173</v>
+      <c r="AP16" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>10.3133/pp1141:10.1016/S0016-7037(03)00140-6:10.1016/S0016-7037(03)00126-1</v>
       </c>
     </row>
     <row r="17" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2680,8 +2576,9 @@
       <c r="AN17" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="AP17" s="4" t="s">
-        <v>174</v>
+      <c r="AP17" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>10.3133/pp1141:10.1016/S0016-7037(03)00140-6:10.1016/S0016-7037(03)00126-1</v>
       </c>
     </row>
     <row r="18" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2789,8 +2686,9 @@
       <c r="AN18" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="AP18" s="4" t="s">
-        <v>175</v>
+      <c r="AP18" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>10.3133/pp1141:10.1016/S0016-7037(03)00140-6:10.1016/S0016-7037(03)00126-1</v>
       </c>
     </row>
     <row r="19" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2895,8 +2793,9 @@
         <v>91</v>
       </c>
       <c r="AO19" s="36"/>
-      <c r="AP19" s="4" t="s">
-        <v>176</v>
+      <c r="AP19" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>10.3133/pp1141:10.1016/S0016-7037(03)00140-6:10.1016/S0016-7037(03)00126-1</v>
       </c>
     </row>
     <row r="20" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2999,7 +2898,7 @@
         <v>99</v>
       </c>
       <c r="AP20" s="4" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
     </row>
     <row r="21" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3101,8 +3000,9 @@
       <c r="AN21" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="AP21" s="4" t="s">
-        <v>178</v>
+      <c r="AP21" s="4" t="str">
+        <f>AP20</f>
+        <v>10.3133/pp1141</v>
       </c>
     </row>
     <row r="22" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3208,8 +3108,9 @@
       <c r="AN22" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="AP22" s="4" t="s">
-        <v>179</v>
+      <c r="AP22" s="4" t="str">
+        <f t="shared" ref="AP22:AP47" si="1">AP21</f>
+        <v>10.3133/pp1141</v>
       </c>
     </row>
     <row r="23" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3307,8 +3208,9 @@
       <c r="AN23" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="AP23" s="4" t="s">
-        <v>180</v>
+      <c r="AP23" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>10.3133/pp1141</v>
       </c>
     </row>
     <row r="24" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3410,8 +3312,9 @@
       <c r="AN24" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="AP24" s="4" t="s">
-        <v>181</v>
+      <c r="AP24" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>10.3133/pp1141</v>
       </c>
     </row>
     <row r="25" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3513,8 +3416,9 @@
       <c r="AN25" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="AP25" s="4" t="s">
-        <v>182</v>
+      <c r="AP25" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>10.3133/pp1141</v>
       </c>
     </row>
     <row r="26" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3620,8 +3524,9 @@
       <c r="AN26" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="AP26" s="4" t="s">
-        <v>183</v>
+      <c r="AP26" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>10.3133/pp1141</v>
       </c>
     </row>
     <row r="27" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3727,8 +3632,9 @@
       <c r="AN27" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="AP27" s="4" t="s">
-        <v>184</v>
+      <c r="AP27" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>10.3133/pp1141</v>
       </c>
     </row>
     <row r="28" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3834,8 +3740,9 @@
       <c r="AN28" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="AP28" s="4" t="s">
-        <v>185</v>
+      <c r="AP28" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>10.3133/pp1141</v>
       </c>
     </row>
     <row r="29" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3941,8 +3848,9 @@
       <c r="AN29" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="AP29" s="4" t="s">
-        <v>186</v>
+      <c r="AP29" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>10.3133/pp1141</v>
       </c>
     </row>
     <row r="30" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4048,8 +3956,9 @@
       <c r="AN30" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="AP30" s="4" t="s">
-        <v>187</v>
+      <c r="AP30" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>10.3133/pp1141</v>
       </c>
     </row>
     <row r="31" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4153,8 +4062,9 @@
         <v>98</v>
       </c>
       <c r="AN31" s="4"/>
-      <c r="AP31" s="4" t="s">
-        <v>188</v>
+      <c r="AP31" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>10.3133/pp1141</v>
       </c>
     </row>
     <row r="32" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4258,8 +4168,9 @@
         <v>98</v>
       </c>
       <c r="AN32" s="4"/>
-      <c r="AP32" s="4" t="s">
-        <v>189</v>
+      <c r="AP32" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>10.3133/pp1141</v>
       </c>
     </row>
     <row r="33" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4359,8 +4270,9 @@
         <v>98</v>
       </c>
       <c r="AN33" s="4"/>
-      <c r="AP33" s="4" t="s">
-        <v>190</v>
+      <c r="AP33" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>10.3133/pp1141</v>
       </c>
     </row>
     <row r="34" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4462,8 +4374,9 @@
         <v>98</v>
       </c>
       <c r="AN34" s="4"/>
-      <c r="AP34" s="4" t="s">
-        <v>191</v>
+      <c r="AP34" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>10.3133/pp1141</v>
       </c>
     </row>
     <row r="35" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4569,8 +4482,9 @@
       <c r="AN35" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="AP35" s="4" t="s">
-        <v>192</v>
+      <c r="AP35" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>10.3133/pp1141</v>
       </c>
     </row>
     <row r="36" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4672,8 +4586,9 @@
       <c r="AN36" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="AP36" s="4" t="s">
-        <v>193</v>
+      <c r="AP36" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>10.3133/pp1141</v>
       </c>
     </row>
     <row r="37" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4779,8 +4694,9 @@
       <c r="AN37" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="AP37" s="4" t="s">
-        <v>194</v>
+      <c r="AP37" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>10.3133/pp1141</v>
       </c>
     </row>
     <row r="38" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4880,8 +4796,9 @@
         <v>98</v>
       </c>
       <c r="AN38" s="4"/>
-      <c r="AP38" s="4" t="s">
-        <v>195</v>
+      <c r="AP38" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>10.3133/pp1141</v>
       </c>
     </row>
     <row r="39" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4983,8 +4900,9 @@
       <c r="AN39" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="AP39" s="4" t="s">
-        <v>196</v>
+      <c r="AP39" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>10.3133/pp1141</v>
       </c>
     </row>
     <row r="40" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5088,8 +5006,9 @@
         <v>98</v>
       </c>
       <c r="AN40" s="4"/>
-      <c r="AP40" s="4" t="s">
-        <v>197</v>
+      <c r="AP40" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>10.3133/pp1141</v>
       </c>
     </row>
     <row r="41" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5193,8 +5112,9 @@
         <v>98</v>
       </c>
       <c r="AN41" s="4"/>
-      <c r="AP41" s="4" t="s">
-        <v>198</v>
+      <c r="AP41" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>10.3133/pp1141</v>
       </c>
     </row>
     <row r="42" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5298,8 +5218,9 @@
         <v>98</v>
       </c>
       <c r="AN42" s="4"/>
-      <c r="AP42" s="4" t="s">
-        <v>199</v>
+      <c r="AP42" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>10.3133/pp1141</v>
       </c>
     </row>
     <row r="43" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5403,8 +5324,9 @@
         <v>98</v>
       </c>
       <c r="AN43" s="4"/>
-      <c r="AP43" s="4" t="s">
-        <v>200</v>
+      <c r="AP43" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>10.3133/pp1141</v>
       </c>
     </row>
     <row r="44" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5508,8 +5430,9 @@
         <v>98</v>
       </c>
       <c r="AN44" s="4"/>
-      <c r="AP44" s="4" t="s">
-        <v>201</v>
+      <c r="AP44" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>10.3133/pp1141</v>
       </c>
     </row>
     <row r="45" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5613,8 +5536,9 @@
         <v>98</v>
       </c>
       <c r="AN45" s="4"/>
-      <c r="AP45" s="4" t="s">
-        <v>202</v>
+      <c r="AP45" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>10.3133/pp1141</v>
       </c>
     </row>
     <row r="46" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5716,8 +5640,9 @@
         <v>98</v>
       </c>
       <c r="AN46" s="4"/>
-      <c r="AP46" s="4" t="s">
-        <v>203</v>
+      <c r="AP46" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>10.3133/pp1141</v>
       </c>
     </row>
     <row r="47" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5821,8 +5746,9 @@
         <v>70</v>
       </c>
       <c r="AN47" s="4"/>
-      <c r="AP47" s="4" t="s">
-        <v>204</v>
+      <c r="AP47" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>10.3133/pp1141</v>
       </c>
     </row>
     <row r="48" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
